--- a/statistics/SPSS/roiHumanBody_Within-PLI_beta/roiHumanBody_Within-PLI_beta.xlsx
+++ b/statistics/SPSS/roiHumanBody_Within-PLI_beta/roiHumanBody_Within-PLI_beta.xlsx
@@ -79,12 +79,12 @@
   <dimension ref="A1:F30"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" customWidth="true"/>
+    <col min="1" max="1" width="16.42578125" customWidth="true"/>
     <col min="2" max="2" width="16.42578125" customWidth="true"/>
     <col min="3" max="3" width="16.42578125" customWidth="true"/>
-    <col min="4" max="4" width="15.42578125" customWidth="true"/>
-    <col min="5" max="5" width="15.7109375" customWidth="true"/>
-    <col min="6" max="6" width="15.7109375" customWidth="true"/>
+    <col min="4" max="4" width="15.7109375" customWidth="true"/>
+    <col min="5" max="5" width="16.42578125" customWidth="true"/>
+    <col min="6" max="6" width="16.42578125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -109,582 +109,582 @@
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.011685792935792916</v>
+        <v>-0.0058428964678964579</v>
       </c>
       <c r="B2" s="0">
-        <v>-0.018959435626102333</v>
+        <v>-0.0094797178130511667</v>
       </c>
       <c r="C2" s="0">
-        <v>0.035204762908747744</v>
+        <v>0.017602381454373872</v>
       </c>
       <c r="D2" s="0">
-        <v>0.037414965986394544</v>
+        <v>0.018707482993197272</v>
       </c>
       <c r="E2" s="0">
-        <v>0.017729591836734671</v>
+        <v>0.0088647959183673353</v>
       </c>
       <c r="F2" s="0">
-        <v>-0.0084156469605386475</v>
+        <v>-0.0042078234802693237</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.019823978974305823</v>
+        <v>-0.0099119894871529113</v>
       </c>
       <c r="B3" s="0">
-        <v>0.019387755102040827</v>
+        <v>0.0096938775510204134</v>
       </c>
       <c r="C3" s="0">
-        <v>-0.047679071628651482</v>
+        <v>-0.023839535814325741</v>
       </c>
       <c r="D3" s="0">
-        <v>0.0089480236539060121</v>
+        <v>0.004474011826953006</v>
       </c>
       <c r="E3" s="0">
-        <v>0.033769063180827952</v>
+        <v>0.016884531590413976</v>
       </c>
       <c r="F3" s="0">
-        <v>0.043825834427338201</v>
+        <v>0.0219129172136691</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-0.0014110749404866729</v>
+        <v>-0.00070553747024333646</v>
       </c>
       <c r="B4" s="0">
-        <v>-0.0064327485380116789</v>
+        <v>-0.0032163742690058394</v>
       </c>
       <c r="C4" s="0">
-        <v>0.0078526087298016745</v>
+        <v>0.0039263043649008372</v>
       </c>
       <c r="D4" s="0">
-        <v>0.039094650205761305</v>
+        <v>0.019547325102880653</v>
       </c>
       <c r="E4" s="0">
-        <v>-0.013579473374795037</v>
+        <v>-0.0067897366873975185</v>
       </c>
       <c r="F4" s="0">
-        <v>-0.03931403931403929</v>
+        <v>-0.019657019657019645</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.001640415926130151</v>
+        <v>0.00082020796306507548</v>
       </c>
       <c r="B5" s="0">
-        <v>0.006399978622200847</v>
+        <v>0.0031999893111004235</v>
       </c>
       <c r="C5" s="0">
-        <v>-0.018993562337215608</v>
+        <v>-0.0094967811686078041</v>
       </c>
       <c r="D5" s="0">
-        <v>0.022566939233605893</v>
+        <v>0.011283469616802946</v>
       </c>
       <c r="E5" s="0">
-        <v>0.0065699891067537985</v>
+        <v>0.0032849945533768993</v>
       </c>
       <c r="F5" s="0">
-        <v>0.0038220675475577337</v>
+        <v>0.0019110337737788669</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>-0.01295434628767958</v>
+        <v>-0.00647717314383979</v>
       </c>
       <c r="B6" s="0">
-        <v>0.0064122622366349913</v>
+        <v>0.0032061311183174956</v>
       </c>
       <c r="C6" s="0">
-        <v>-0.019171304885590573</v>
+        <v>-0.0095856524427952866</v>
       </c>
       <c r="D6" s="0">
-        <v>0.0042794895736072702</v>
+        <v>0.0021397447868036351</v>
       </c>
       <c r="E6" s="0">
-        <v>-0.0041858184715327929</v>
+        <v>-0.0020929092357663964</v>
       </c>
       <c r="F6" s="0">
-        <v>-0.0089295644851200839</v>
+        <v>-0.004464782242560042</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>-0.018301706647571359</v>
+        <v>-0.0091508533237856793</v>
       </c>
       <c r="B7" s="0">
-        <v>-0.032130360561733046</v>
+        <v>-0.016065180280866523</v>
       </c>
       <c r="C7" s="0">
-        <v>0.018722185388852008</v>
+        <v>0.0093610926944260042</v>
       </c>
       <c r="D7" s="0">
-        <v>-0.024187452758881317</v>
+        <v>-0.012093726379440659</v>
       </c>
       <c r="E7" s="0">
-        <v>-0.018301209372637961</v>
+        <v>-0.0091506046863189805</v>
       </c>
       <c r="F7" s="0">
-        <v>-0.0011379860586210044</v>
+        <v>-0.00056899302931050222</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>-0.028267763561881154</v>
+        <v>-0.014133881780940577</v>
       </c>
       <c r="B8" s="0">
-        <v>-0.00047483380816709664</v>
+        <v>-0.00023741690408354832</v>
       </c>
       <c r="C8" s="0">
-        <v>0.035311161501637683</v>
+        <v>0.017655580750818842</v>
       </c>
       <c r="D8" s="0">
-        <v>0.0014414597747930691</v>
+        <v>0.00072072988739653454</v>
       </c>
       <c r="E8" s="0">
-        <v>0.010042695756981468</v>
+        <v>0.0050213478784907339</v>
       </c>
       <c r="F8" s="0">
-        <v>0.020465902410346903</v>
+        <v>0.010232951205173452</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.0024526014109347294</v>
+        <v>0.0012263007054673647</v>
       </c>
       <c r="B9" s="0">
-        <v>-0.0057176992660863679</v>
+        <v>-0.002858849633043184</v>
       </c>
       <c r="C9" s="0">
-        <v>-0.050040554942515747</v>
+        <v>-0.025020277471257873</v>
       </c>
       <c r="D9" s="0">
-        <v>0.031002771478961993</v>
+        <v>0.015501385739480997</v>
       </c>
       <c r="E9" s="0">
-        <v>-0.0065359477124183052</v>
+        <v>-0.0032679738562091526</v>
       </c>
       <c r="F9" s="0">
-        <v>0.037303907917942969</v>
+        <v>0.018651953958971484</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>-0.01493041661108882</v>
+        <v>-0.0074652083055444102</v>
       </c>
       <c r="B10" s="0">
-        <v>-0.0018100807574492617</v>
+        <v>-0.00090504037872463083</v>
       </c>
       <c r="C10" s="0">
-        <v>0.010459439030867573</v>
+        <v>0.0052297195154337867</v>
       </c>
       <c r="D10" s="0">
-        <v>-0.014252367613712097</v>
+        <v>-0.0071261838068560485</v>
       </c>
       <c r="E10" s="0">
-        <v>-0.026047873270095556</v>
+        <v>-0.013023936635047778</v>
       </c>
       <c r="F10" s="0">
-        <v>0.013034102529900893</v>
+        <v>0.0065170512649504464</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>-0.015016619183285868</v>
+        <v>-0.0075083095916429338</v>
       </c>
       <c r="B11" s="0">
-        <v>-0.00048732943469781409</v>
+        <v>-0.00024366471734890705</v>
       </c>
       <c r="C11" s="0">
-        <v>0.024238524238524239</v>
+        <v>0.01211926211926212</v>
       </c>
       <c r="D11" s="0">
-        <v>-0.038660088660088632</v>
+        <v>-0.019330044330044316</v>
       </c>
       <c r="E11" s="0">
-        <v>-0.038161375661375674</v>
+        <v>-0.019080687830687837</v>
       </c>
       <c r="F11" s="0">
-        <v>0.00066702844480617807</v>
+        <v>0.00033351422240308903</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.023770251840427248</v>
+        <v>0.011885125920213624</v>
       </c>
       <c r="B12" s="0">
-        <v>0.042060116621520066</v>
+        <v>0.021030058310760033</v>
       </c>
       <c r="C12" s="0">
-        <v>-0.00048824334538616343</v>
+        <v>-0.00024412167269308171</v>
       </c>
       <c r="D12" s="0">
-        <v>0.051271034729681308</v>
+        <v>0.025635517364840654</v>
       </c>
       <c r="E12" s="0">
-        <v>-0.034978017434157738</v>
+        <v>-0.017489008717078869</v>
       </c>
       <c r="F12" s="0">
-        <v>-0.024080857414190804</v>
+        <v>-0.012040428707095402</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.027408264250369518</v>
+        <v>0.013704132125184759</v>
       </c>
       <c r="B13" s="0">
-        <v>0.0090000715000715104</v>
+        <v>0.0045000357500357552</v>
       </c>
       <c r="C13" s="0">
-        <v>-0.043076441102756879</v>
+        <v>-0.02153822055137844</v>
       </c>
       <c r="D13" s="0">
-        <v>-0.018386243386243395</v>
+        <v>-0.0091931216931216975</v>
       </c>
       <c r="E13" s="0">
-        <v>-0.0011814317369873151</v>
+        <v>-0.00059071586849365754</v>
       </c>
       <c r="F13" s="0">
-        <v>0.0088076316146491751</v>
+        <v>0.0044038158073245876</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>-0.018512219702695898</v>
+        <v>-0.0092561098513479489</v>
       </c>
       <c r="B14" s="0">
-        <v>0.02219282774838327</v>
+        <v>0.011096413874191635</v>
       </c>
       <c r="C14" s="0">
-        <v>-0.022301893730465122</v>
+        <v>-0.011150946865232561</v>
       </c>
       <c r="D14" s="0">
-        <v>-0.023672832496361929</v>
+        <v>-0.011836416248180964</v>
       </c>
       <c r="E14" s="0">
-        <v>0.027742027742027803</v>
+        <v>0.013871013871013901</v>
       </c>
       <c r="F14" s="0">
-        <v>0.0066137566137566828</v>
+        <v>0.0033068783068783414</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>-0.025148525148525169</v>
+        <v>-0.012574262574262585</v>
       </c>
       <c r="B15" s="0">
-        <v>-0.028294167183056107</v>
+        <v>-0.014147083591528054</v>
       </c>
       <c r="C15" s="0">
-        <v>0.028094044635397997</v>
+        <v>0.014047022317698998</v>
       </c>
       <c r="D15" s="0">
-        <v>-0.070339136128609842</v>
+        <v>-0.035169568064304921</v>
       </c>
       <c r="E15" s="0">
-        <v>0.0078115421252676065</v>
+        <v>0.0039057710626338032</v>
       </c>
       <c r="F15" s="0">
-        <v>-0.0024827024827025479</v>
+        <v>-0.0012413512413512739</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.035118451785118493</v>
+        <v>0.017559225892559246</v>
       </c>
       <c r="B16" s="0">
-        <v>0.0053780284043441762</v>
+        <v>0.0026890142021720881</v>
       </c>
       <c r="C16" s="0">
-        <v>-0.003734503734503708</v>
+        <v>-0.001867251867251854</v>
       </c>
       <c r="D16" s="0">
-        <v>0.013575605680868796</v>
+        <v>0.0067878028404343982</v>
       </c>
       <c r="E16" s="0">
-        <v>-0.018425351758685066</v>
+        <v>-0.0092126758793425328</v>
       </c>
       <c r="F16" s="0">
-        <v>-0.014260642528616391</v>
+        <v>-0.0071303212643081954</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>-0.020061728395061706</v>
+        <v>-0.010030864197530853</v>
       </c>
       <c r="B17" s="0">
-        <v>-0.039308588932649102</v>
+        <v>-0.019654294466324551</v>
       </c>
       <c r="C17" s="0">
-        <v>-0.02659802659802657</v>
+        <v>-0.013299013299013285</v>
       </c>
       <c r="D17" s="0">
-        <v>0.019059352392685747</v>
+        <v>0.0095296761963428733</v>
       </c>
       <c r="E17" s="0">
-        <v>0.030459030459030423</v>
+        <v>0.015229515229515211</v>
       </c>
       <c r="F17" s="0">
-        <v>0.014540333984778442</v>
+        <v>0.0072701669923892209</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>-0.05347086852934807</v>
+        <v>-0.026735434264674035</v>
       </c>
       <c r="B18" s="0">
-        <v>-0.016913315033615817</v>
+        <v>-0.0084566575168079083</v>
       </c>
       <c r="C18" s="0">
-        <v>-0.020857108275408903</v>
+        <v>-0.010428554137704452</v>
       </c>
       <c r="D18" s="0">
-        <v>0.033287489169842088</v>
+        <v>0.016643744584921044</v>
       </c>
       <c r="E18" s="0">
-        <v>-0.032004283194759342</v>
+        <v>-0.016002141597379671</v>
       </c>
       <c r="F18" s="0">
-        <v>-0.037566137566137581</v>
+        <v>-0.01878306878306879</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>-0.028481145544637626</v>
+        <v>-0.014240572772318813</v>
       </c>
       <c r="B19" s="0">
-        <v>-0.049355642191899501</v>
+        <v>-0.024677821095949751</v>
       </c>
       <c r="C19" s="0">
-        <v>-0.044761030872141921</v>
+        <v>-0.022380515436070961</v>
       </c>
       <c r="D19" s="0">
-        <v>-0.022802103297459297</v>
+        <v>-0.011401051648729649</v>
       </c>
       <c r="E19" s="0">
-        <v>0.0090702947845805182</v>
+        <v>0.0045351473922902591</v>
       </c>
       <c r="F19" s="0">
-        <v>0.0024748250554703088</v>
+        <v>0.0012374125277351544</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.028030699459270836</v>
+        <v>0.014015349729635418</v>
       </c>
       <c r="B20" s="0">
-        <v>0.057773939352886661</v>
+        <v>0.02888696967644333</v>
       </c>
       <c r="C20" s="0">
-        <v>0.0098358431691765169</v>
+        <v>0.0049179215845882585</v>
       </c>
       <c r="D20" s="0">
-        <v>0.010759574485064732</v>
+        <v>0.0053797872425323662</v>
       </c>
       <c r="E20" s="0">
-        <v>-0.0065798399131732355</v>
+        <v>-0.0032899199565866177</v>
       </c>
       <c r="F20" s="0">
-        <v>-0.016284291494375491</v>
+        <v>-0.0081421457471877456</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.020509520509520512</v>
+        <v>0.010254760254760256</v>
       </c>
       <c r="B21" s="0">
-        <v>0.073381459346371608</v>
+        <v>0.036690729673185804</v>
       </c>
       <c r="C21" s="0">
-        <v>-0.022495022495022526</v>
+        <v>-0.011247511247511263</v>
       </c>
       <c r="D21" s="0">
-        <v>-0.033472213296774689</v>
+        <v>-0.016736106648387344</v>
       </c>
       <c r="E21" s="0">
-        <v>0.012360763018657739</v>
+        <v>0.0061803815093288694</v>
       </c>
       <c r="F21" s="0">
-        <v>-0.010910177576844204</v>
+        <v>-0.0054550887884221022</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.011883732471967723</v>
+        <v>0.0059418662359838614</v>
       </c>
       <c r="B22" s="0">
-        <v>-0.034207818930041128</v>
+        <v>-0.017103909465020564</v>
       </c>
       <c r="C22" s="0">
-        <v>-0.023666726791726822</v>
+        <v>-0.011833363395863411</v>
       </c>
       <c r="D22" s="0">
-        <v>0.0018387471947843292</v>
+        <v>0.00091937359739216462</v>
       </c>
       <c r="E22" s="0">
-        <v>0.013756613756613745</v>
+        <v>0.0068783068783068724</v>
       </c>
       <c r="F22" s="0">
-        <v>-0.020881993104215318</v>
+        <v>-0.010440996552107659</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.0069633125188681422</v>
+        <v>-0.0034816562594340711</v>
       </c>
       <c r="B23" s="0">
-        <v>-0.0030397744683458572</v>
+        <v>-0.0015198872341729286</v>
       </c>
       <c r="C23" s="0">
-        <v>-0.017383925278662143</v>
+        <v>-0.0086919626393310717</v>
       </c>
       <c r="D23" s="0">
-        <v>0.027091193757860454</v>
+        <v>0.013545596878930227</v>
       </c>
       <c r="E23" s="0">
-        <v>0.024402221770642801</v>
+        <v>0.012201110885321401</v>
       </c>
       <c r="F23" s="0">
-        <v>-0.026211873638344207</v>
+        <v>-0.013105936819172104</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.015944515944515958</v>
+        <v>0.0079722579722579789</v>
       </c>
       <c r="B24" s="0">
-        <v>-0.060401776045050842</v>
+        <v>-0.030200888022525421</v>
       </c>
       <c r="C24" s="0">
-        <v>-6.7833401166728091e-05</v>
+        <v>-3.3916700583364046e-05</v>
       </c>
       <c r="D24" s="0">
-        <v>-0.058131439710387117</v>
+        <v>-0.029065719855193559</v>
       </c>
       <c r="E24" s="0">
-        <v>0.0069689894251298012</v>
+        <v>0.0034844947125649006</v>
       </c>
       <c r="F24" s="0">
-        <v>0.013941549029268335</v>
+        <v>0.0069707745146341676</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>-0.0050518498794360767</v>
+        <v>-0.0025259249397180383</v>
       </c>
       <c r="B25" s="0">
-        <v>-0.016874016874016906</v>
+        <v>-0.008437008437008453</v>
       </c>
       <c r="C25" s="0">
-        <v>-0.017543517543517573</v>
+        <v>-0.0087717587717587864</v>
       </c>
       <c r="D25" s="0">
-        <v>-0.039611039611039595</v>
+        <v>-0.019805519805519797</v>
       </c>
       <c r="E25" s="0">
-        <v>0.014434595386976334</v>
+        <v>0.0072172976934881672</v>
       </c>
       <c r="F25" s="0">
-        <v>-0.0010255791505791867</v>
+        <v>-0.00051278957528959335</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.016928896314861275</v>
+        <v>0.0084644481574306374</v>
       </c>
       <c r="B26" s="0">
-        <v>-0.027018855590284163</v>
+        <v>-0.013509427795142082</v>
       </c>
       <c r="C26" s="0">
-        <v>-0.0018862763960803275</v>
+        <v>-0.00094313819804016374</v>
       </c>
       <c r="D26" s="0">
-        <v>0.0014195956160241441</v>
+        <v>0.00070979780801207204</v>
       </c>
       <c r="E26" s="0">
-        <v>0.00034481978926431678</v>
+        <v>0.00017240989463215839</v>
       </c>
       <c r="F26" s="0">
-        <v>-0.037931839402427642</v>
+        <v>-0.018965919701213821</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>-0.0040824996965347915</v>
+        <v>-0.0020412498482673958</v>
       </c>
       <c r="B27" s="0">
-        <v>-0.03068628361026024</v>
+        <v>-0.01534314180513012</v>
       </c>
       <c r="C27" s="0">
-        <v>0.046082817511388957</v>
+        <v>0.023041408755694479</v>
       </c>
       <c r="D27" s="0">
-        <v>-0.010510510510510496</v>
+        <v>-0.0052552552552552478</v>
       </c>
       <c r="E27" s="0">
-        <v>0.01119251119251119</v>
+        <v>0.0055962555962555949</v>
       </c>
       <c r="F27" s="0">
-        <v>-0.0022165022165021864</v>
+        <v>-0.0011082511082510932</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.015293524817334397</v>
+        <v>0.0076467624086671987</v>
       </c>
       <c r="B28" s="0">
-        <v>0.060998786805238348</v>
+        <v>0.030499393402619174</v>
       </c>
       <c r="C28" s="0">
-        <v>0.069478208367097255</v>
+        <v>0.034739104183548628</v>
       </c>
       <c r="D28" s="0">
-        <v>-0.013822751322751348</v>
+        <v>-0.0069113756613756738</v>
       </c>
       <c r="E28" s="0">
-        <v>-0.05064491746519395</v>
+        <v>-0.025322458732596975</v>
       </c>
       <c r="F28" s="0">
-        <v>-0.014005602240896337</v>
+        <v>-0.0070028011204481683</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>-0.017543859649122778</v>
+        <v>-0.0087719298245613891</v>
       </c>
       <c r="B29" s="0">
-        <v>0.014543847877181243</v>
+        <v>0.0072719239385906215</v>
       </c>
       <c r="C29" s="0">
-        <v>-0.0025819470263914457</v>
+        <v>-0.0012909735131957228</v>
       </c>
       <c r="D29" s="0">
-        <v>-0.0035218765868920698</v>
+        <v>-0.0017609382934460349</v>
       </c>
       <c r="E29" s="0">
-        <v>0.045549631263917034</v>
+        <v>0.022774815631958517</v>
       </c>
       <c r="F29" s="0">
-        <v>-0.0384670384670385</v>
+        <v>-0.01923351923351925</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.024951737451737399</v>
+        <v>0.0124758687258687</v>
       </c>
       <c r="B30" s="0">
-        <v>-0.0087533962533962173</v>
+        <v>-0.0043766981266981086</v>
       </c>
       <c r="C30" s="0">
-        <v>-0.023189856523189833</v>
+        <v>-0.011594928261594917</v>
       </c>
       <c r="D30" s="0">
-        <v>0.024406549406549377</v>
+        <v>0.012203274703274689</v>
       </c>
       <c r="E30" s="0">
-        <v>0.026719576719576643</v>
+        <v>0.013359788359788322</v>
       </c>
       <c r="F30" s="0">
-        <v>-0.012757118020275848</v>
+        <v>-0.0063785590101379241</v>
       </c>
     </row>
   </sheetData>

--- a/statistics/SPSS/roiHumanBody_Within-PLI_beta/roiHumanBody_Within-PLI_beta.xlsx
+++ b/statistics/SPSS/roiHumanBody_Within-PLI_beta/roiHumanBody_Within-PLI_beta.xlsx
@@ -79,12 +79,12 @@
   <dimension ref="A1:F30"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.42578125" customWidth="true"/>
+    <col min="1" max="1" width="15.42578125" customWidth="true"/>
     <col min="2" max="2" width="16.42578125" customWidth="true"/>
     <col min="3" max="3" width="16.42578125" customWidth="true"/>
-    <col min="4" max="4" width="15.7109375" customWidth="true"/>
-    <col min="5" max="5" width="16.42578125" customWidth="true"/>
-    <col min="6" max="6" width="16.42578125" customWidth="true"/>
+    <col min="4" max="4" width="15.42578125" customWidth="true"/>
+    <col min="5" max="5" width="15.7109375" customWidth="true"/>
+    <col min="6" max="6" width="15.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -109,582 +109,582 @@
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.0058428964678964579</v>
+        <v>-0.011685792935792916</v>
       </c>
       <c r="B2" s="0">
-        <v>-0.0094797178130511667</v>
+        <v>-0.018959435626102333</v>
       </c>
       <c r="C2" s="0">
-        <v>0.017602381454373872</v>
+        <v>0.035204762908747744</v>
       </c>
       <c r="D2" s="0">
-        <v>0.018707482993197272</v>
+        <v>0.037414965986394544</v>
       </c>
       <c r="E2" s="0">
-        <v>0.0088647959183673353</v>
+        <v>0.017729591836734671</v>
       </c>
       <c r="F2" s="0">
-        <v>-0.0042078234802693237</v>
+        <v>-0.0084156469605386475</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.0099119894871529113</v>
+        <v>-0.019823978974305823</v>
       </c>
       <c r="B3" s="0">
-        <v>0.0096938775510204134</v>
+        <v>0.019387755102040827</v>
       </c>
       <c r="C3" s="0">
-        <v>-0.023839535814325741</v>
+        <v>-0.047679071628651482</v>
       </c>
       <c r="D3" s="0">
-        <v>0.004474011826953006</v>
+        <v>0.0089480236539060121</v>
       </c>
       <c r="E3" s="0">
-        <v>0.016884531590413976</v>
+        <v>0.033769063180827952</v>
       </c>
       <c r="F3" s="0">
-        <v>0.0219129172136691</v>
+        <v>0.043825834427338201</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-0.00070553747024333646</v>
+        <v>-0.0014110749404866729</v>
       </c>
       <c r="B4" s="0">
-        <v>-0.0032163742690058394</v>
+        <v>-0.0064327485380116789</v>
       </c>
       <c r="C4" s="0">
-        <v>0.0039263043649008372</v>
+        <v>0.0078526087298016745</v>
       </c>
       <c r="D4" s="0">
-        <v>0.019547325102880653</v>
+        <v>0.039094650205761305</v>
       </c>
       <c r="E4" s="0">
-        <v>-0.0067897366873975185</v>
+        <v>-0.013579473374795037</v>
       </c>
       <c r="F4" s="0">
-        <v>-0.019657019657019645</v>
+        <v>-0.03931403931403929</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.00082020796306507548</v>
+        <v>0.001640415926130151</v>
       </c>
       <c r="B5" s="0">
-        <v>0.0031999893111004235</v>
+        <v>0.006399978622200847</v>
       </c>
       <c r="C5" s="0">
-        <v>-0.0094967811686078041</v>
+        <v>-0.018993562337215608</v>
       </c>
       <c r="D5" s="0">
-        <v>0.011283469616802946</v>
+        <v>0.022566939233605893</v>
       </c>
       <c r="E5" s="0">
-        <v>0.0032849945533768993</v>
+        <v>0.0065699891067537985</v>
       </c>
       <c r="F5" s="0">
-        <v>0.0019110337737788669</v>
+        <v>0.0038220675475577337</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>-0.00647717314383979</v>
+        <v>-0.01295434628767958</v>
       </c>
       <c r="B6" s="0">
-        <v>0.0032061311183174956</v>
+        <v>0.0064122622366349913</v>
       </c>
       <c r="C6" s="0">
-        <v>-0.0095856524427952866</v>
+        <v>-0.019171304885590573</v>
       </c>
       <c r="D6" s="0">
-        <v>0.0021397447868036351</v>
+        <v>0.0042794895736072702</v>
       </c>
       <c r="E6" s="0">
-        <v>-0.0020929092357663964</v>
+        <v>-0.0041858184715327929</v>
       </c>
       <c r="F6" s="0">
-        <v>-0.004464782242560042</v>
+        <v>-0.0089295644851200839</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>-0.0091508533237856793</v>
+        <v>-0.018301706647571359</v>
       </c>
       <c r="B7" s="0">
-        <v>-0.016065180280866523</v>
+        <v>-0.032130360561733046</v>
       </c>
       <c r="C7" s="0">
-        <v>0.0093610926944260042</v>
+        <v>0.018722185388852008</v>
       </c>
       <c r="D7" s="0">
-        <v>-0.012093726379440659</v>
+        <v>-0.024187452758881317</v>
       </c>
       <c r="E7" s="0">
-        <v>-0.0091506046863189805</v>
+        <v>-0.018301209372637961</v>
       </c>
       <c r="F7" s="0">
-        <v>-0.00056899302931050222</v>
+        <v>-0.0011379860586210044</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>-0.014133881780940577</v>
+        <v>-0.028267763561881154</v>
       </c>
       <c r="B8" s="0">
-        <v>-0.00023741690408354832</v>
+        <v>-0.00047483380816709664</v>
       </c>
       <c r="C8" s="0">
-        <v>0.017655580750818842</v>
+        <v>0.035311161501637683</v>
       </c>
       <c r="D8" s="0">
-        <v>0.00072072988739653454</v>
+        <v>0.0014414597747930691</v>
       </c>
       <c r="E8" s="0">
-        <v>0.0050213478784907339</v>
+        <v>0.010042695756981468</v>
       </c>
       <c r="F8" s="0">
-        <v>0.010232951205173452</v>
+        <v>0.020465902410346903</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.0012263007054673647</v>
+        <v>0.0024526014109347294</v>
       </c>
       <c r="B9" s="0">
-        <v>-0.002858849633043184</v>
+        <v>-0.0057176992660863679</v>
       </c>
       <c r="C9" s="0">
-        <v>-0.025020277471257873</v>
+        <v>-0.050040554942515747</v>
       </c>
       <c r="D9" s="0">
-        <v>0.015501385739480997</v>
+        <v>0.031002771478961993</v>
       </c>
       <c r="E9" s="0">
-        <v>-0.0032679738562091526</v>
+        <v>-0.0065359477124183052</v>
       </c>
       <c r="F9" s="0">
-        <v>0.018651953958971484</v>
+        <v>0.037303907917942969</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>-0.0074652083055444102</v>
+        <v>-0.01493041661108882</v>
       </c>
       <c r="B10" s="0">
-        <v>-0.00090504037872463083</v>
+        <v>-0.0018100807574492617</v>
       </c>
       <c r="C10" s="0">
-        <v>0.0052297195154337867</v>
+        <v>0.010459439030867573</v>
       </c>
       <c r="D10" s="0">
-        <v>-0.0071261838068560485</v>
+        <v>-0.014252367613712097</v>
       </c>
       <c r="E10" s="0">
-        <v>-0.013023936635047778</v>
+        <v>-0.026047873270095556</v>
       </c>
       <c r="F10" s="0">
-        <v>0.0065170512649504464</v>
+        <v>0.013034102529900893</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>-0.0075083095916429338</v>
+        <v>-0.015016619183285868</v>
       </c>
       <c r="B11" s="0">
-        <v>-0.00024366471734890705</v>
+        <v>-0.00048732943469781409</v>
       </c>
       <c r="C11" s="0">
-        <v>0.01211926211926212</v>
+        <v>0.024238524238524239</v>
       </c>
       <c r="D11" s="0">
-        <v>-0.019330044330044316</v>
+        <v>-0.038660088660088632</v>
       </c>
       <c r="E11" s="0">
-        <v>-0.019080687830687837</v>
+        <v>-0.038161375661375674</v>
       </c>
       <c r="F11" s="0">
-        <v>0.00033351422240308903</v>
+        <v>0.00066702844480617807</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.011885125920213624</v>
+        <v>0.023770251840427248</v>
       </c>
       <c r="B12" s="0">
-        <v>0.021030058310760033</v>
+        <v>0.042060116621520066</v>
       </c>
       <c r="C12" s="0">
-        <v>-0.00024412167269308171</v>
+        <v>-0.00048824334538616343</v>
       </c>
       <c r="D12" s="0">
-        <v>0.025635517364840654</v>
+        <v>0.051271034729681308</v>
       </c>
       <c r="E12" s="0">
-        <v>-0.017489008717078869</v>
+        <v>-0.034978017434157738</v>
       </c>
       <c r="F12" s="0">
-        <v>-0.012040428707095402</v>
+        <v>-0.024080857414190804</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.013704132125184759</v>
+        <v>0.027408264250369518</v>
       </c>
       <c r="B13" s="0">
-        <v>0.0045000357500357552</v>
+        <v>0.0090000715000715104</v>
       </c>
       <c r="C13" s="0">
-        <v>-0.02153822055137844</v>
+        <v>-0.043076441102756879</v>
       </c>
       <c r="D13" s="0">
-        <v>-0.0091931216931216975</v>
+        <v>-0.018386243386243395</v>
       </c>
       <c r="E13" s="0">
-        <v>-0.00059071586849365754</v>
+        <v>-0.0011814317369873151</v>
       </c>
       <c r="F13" s="0">
-        <v>0.0044038158073245876</v>
+        <v>0.0088076316146491751</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>-0.0092561098513479489</v>
+        <v>-0.018512219702695898</v>
       </c>
       <c r="B14" s="0">
-        <v>0.011096413874191635</v>
+        <v>0.02219282774838327</v>
       </c>
       <c r="C14" s="0">
-        <v>-0.011150946865232561</v>
+        <v>-0.022301893730465122</v>
       </c>
       <c r="D14" s="0">
-        <v>-0.011836416248180964</v>
+        <v>-0.023672832496361929</v>
       </c>
       <c r="E14" s="0">
-        <v>0.013871013871013901</v>
+        <v>0.027742027742027803</v>
       </c>
       <c r="F14" s="0">
-        <v>0.0033068783068783414</v>
+        <v>0.0066137566137566828</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>-0.012574262574262585</v>
+        <v>-0.025148525148525169</v>
       </c>
       <c r="B15" s="0">
-        <v>-0.014147083591528054</v>
+        <v>-0.028294167183056107</v>
       </c>
       <c r="C15" s="0">
-        <v>0.014047022317698998</v>
+        <v>0.028094044635397997</v>
       </c>
       <c r="D15" s="0">
-        <v>-0.035169568064304921</v>
+        <v>-0.070339136128609842</v>
       </c>
       <c r="E15" s="0">
-        <v>0.0039057710626338032</v>
+        <v>0.0078115421252676065</v>
       </c>
       <c r="F15" s="0">
-        <v>-0.0012413512413512739</v>
+        <v>-0.0024827024827025479</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.017559225892559246</v>
+        <v>0.035118451785118493</v>
       </c>
       <c r="B16" s="0">
-        <v>0.0026890142021720881</v>
+        <v>0.0053780284043441762</v>
       </c>
       <c r="C16" s="0">
-        <v>-0.001867251867251854</v>
+        <v>-0.003734503734503708</v>
       </c>
       <c r="D16" s="0">
-        <v>0.0067878028404343982</v>
+        <v>0.013575605680868796</v>
       </c>
       <c r="E16" s="0">
-        <v>-0.0092126758793425328</v>
+        <v>-0.018425351758685066</v>
       </c>
       <c r="F16" s="0">
-        <v>-0.0071303212643081954</v>
+        <v>-0.014260642528616391</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>-0.010030864197530853</v>
+        <v>-0.020061728395061706</v>
       </c>
       <c r="B17" s="0">
-        <v>-0.019654294466324551</v>
+        <v>-0.039308588932649102</v>
       </c>
       <c r="C17" s="0">
-        <v>-0.013299013299013285</v>
+        <v>-0.02659802659802657</v>
       </c>
       <c r="D17" s="0">
-        <v>0.0095296761963428733</v>
+        <v>0.019059352392685747</v>
       </c>
       <c r="E17" s="0">
-        <v>0.015229515229515211</v>
+        <v>0.030459030459030423</v>
       </c>
       <c r="F17" s="0">
-        <v>0.0072701669923892209</v>
+        <v>0.014540333984778442</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>-0.026735434264674035</v>
+        <v>-0.05347086852934807</v>
       </c>
       <c r="B18" s="0">
-        <v>-0.0084566575168079083</v>
+        <v>-0.016913315033615817</v>
       </c>
       <c r="C18" s="0">
-        <v>-0.010428554137704452</v>
+        <v>-0.020857108275408903</v>
       </c>
       <c r="D18" s="0">
-        <v>0.016643744584921044</v>
+        <v>0.033287489169842088</v>
       </c>
       <c r="E18" s="0">
-        <v>-0.016002141597379671</v>
+        <v>-0.032004283194759342</v>
       </c>
       <c r="F18" s="0">
-        <v>-0.01878306878306879</v>
+        <v>-0.037566137566137581</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>-0.014240572772318813</v>
+        <v>-0.028481145544637626</v>
       </c>
       <c r="B19" s="0">
-        <v>-0.024677821095949751</v>
+        <v>-0.049355642191899501</v>
       </c>
       <c r="C19" s="0">
-        <v>-0.022380515436070961</v>
+        <v>-0.044761030872141921</v>
       </c>
       <c r="D19" s="0">
-        <v>-0.011401051648729649</v>
+        <v>-0.022802103297459297</v>
       </c>
       <c r="E19" s="0">
-        <v>0.0045351473922902591</v>
+        <v>0.0090702947845805182</v>
       </c>
       <c r="F19" s="0">
-        <v>0.0012374125277351544</v>
+        <v>0.0024748250554703088</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.014015349729635418</v>
+        <v>0.028030699459270836</v>
       </c>
       <c r="B20" s="0">
-        <v>0.02888696967644333</v>
+        <v>0.057773939352886661</v>
       </c>
       <c r="C20" s="0">
-        <v>0.0049179215845882585</v>
+        <v>0.0098358431691765169</v>
       </c>
       <c r="D20" s="0">
-        <v>0.0053797872425323662</v>
+        <v>0.010759574485064732</v>
       </c>
       <c r="E20" s="0">
-        <v>-0.0032899199565866177</v>
+        <v>-0.0065798399131732355</v>
       </c>
       <c r="F20" s="0">
-        <v>-0.0081421457471877456</v>
+        <v>-0.016284291494375491</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.010254760254760256</v>
+        <v>0.020509520509520512</v>
       </c>
       <c r="B21" s="0">
-        <v>0.036690729673185804</v>
+        <v>0.073381459346371608</v>
       </c>
       <c r="C21" s="0">
-        <v>-0.011247511247511263</v>
+        <v>-0.022495022495022526</v>
       </c>
       <c r="D21" s="0">
-        <v>-0.016736106648387344</v>
+        <v>-0.033472213296774689</v>
       </c>
       <c r="E21" s="0">
-        <v>0.0061803815093288694</v>
+        <v>0.012360763018657739</v>
       </c>
       <c r="F21" s="0">
-        <v>-0.0054550887884221022</v>
+        <v>-0.010910177576844204</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.0059418662359838614</v>
+        <v>0.011883732471967723</v>
       </c>
       <c r="B22" s="0">
-        <v>-0.017103909465020564</v>
+        <v>-0.034207818930041128</v>
       </c>
       <c r="C22" s="0">
-        <v>-0.011833363395863411</v>
+        <v>-0.023666726791726822</v>
       </c>
       <c r="D22" s="0">
-        <v>0.00091937359739216462</v>
+        <v>0.0018387471947843292</v>
       </c>
       <c r="E22" s="0">
-        <v>0.0068783068783068724</v>
+        <v>0.013756613756613745</v>
       </c>
       <c r="F22" s="0">
-        <v>-0.010440996552107659</v>
+        <v>-0.020881993104215318</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.0034816562594340711</v>
+        <v>-0.0069633125188681422</v>
       </c>
       <c r="B23" s="0">
-        <v>-0.0015198872341729286</v>
+        <v>-0.0030397744683458572</v>
       </c>
       <c r="C23" s="0">
-        <v>-0.0086919626393310717</v>
+        <v>-0.017383925278662143</v>
       </c>
       <c r="D23" s="0">
-        <v>0.013545596878930227</v>
+        <v>0.027091193757860454</v>
       </c>
       <c r="E23" s="0">
-        <v>0.012201110885321401</v>
+        <v>0.024402221770642801</v>
       </c>
       <c r="F23" s="0">
-        <v>-0.013105936819172104</v>
+        <v>-0.026211873638344207</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.0079722579722579789</v>
+        <v>0.015944515944515958</v>
       </c>
       <c r="B24" s="0">
-        <v>-0.030200888022525421</v>
+        <v>-0.060401776045050842</v>
       </c>
       <c r="C24" s="0">
-        <v>-3.3916700583364046e-05</v>
+        <v>-6.7833401166728091e-05</v>
       </c>
       <c r="D24" s="0">
-        <v>-0.029065719855193559</v>
+        <v>-0.058131439710387117</v>
       </c>
       <c r="E24" s="0">
-        <v>0.0034844947125649006</v>
+        <v>0.0069689894251298012</v>
       </c>
       <c r="F24" s="0">
-        <v>0.0069707745146341676</v>
+        <v>0.013941549029268335</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>-0.0025259249397180383</v>
+        <v>-0.0050518498794360767</v>
       </c>
       <c r="B25" s="0">
-        <v>-0.008437008437008453</v>
+        <v>-0.016874016874016906</v>
       </c>
       <c r="C25" s="0">
-        <v>-0.0087717587717587864</v>
+        <v>-0.017543517543517573</v>
       </c>
       <c r="D25" s="0">
-        <v>-0.019805519805519797</v>
+        <v>-0.039611039611039595</v>
       </c>
       <c r="E25" s="0">
-        <v>0.0072172976934881672</v>
+        <v>0.014434595386976334</v>
       </c>
       <c r="F25" s="0">
-        <v>-0.00051278957528959335</v>
+        <v>-0.0010255791505791867</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.0084644481574306374</v>
+        <v>0.016928896314861275</v>
       </c>
       <c r="B26" s="0">
-        <v>-0.013509427795142082</v>
+        <v>-0.027018855590284163</v>
       </c>
       <c r="C26" s="0">
-        <v>-0.00094313819804016374</v>
+        <v>-0.0018862763960803275</v>
       </c>
       <c r="D26" s="0">
-        <v>0.00070979780801207204</v>
+        <v>0.0014195956160241441</v>
       </c>
       <c r="E26" s="0">
-        <v>0.00017240989463215839</v>
+        <v>0.00034481978926431678</v>
       </c>
       <c r="F26" s="0">
-        <v>-0.018965919701213821</v>
+        <v>-0.037931839402427642</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>-0.0020412498482673958</v>
+        <v>-0.0040824996965347915</v>
       </c>
       <c r="B27" s="0">
-        <v>-0.01534314180513012</v>
+        <v>-0.03068628361026024</v>
       </c>
       <c r="C27" s="0">
-        <v>0.023041408755694479</v>
+        <v>0.046082817511388957</v>
       </c>
       <c r="D27" s="0">
-        <v>-0.0052552552552552478</v>
+        <v>-0.010510510510510496</v>
       </c>
       <c r="E27" s="0">
-        <v>0.0055962555962555949</v>
+        <v>0.01119251119251119</v>
       </c>
       <c r="F27" s="0">
-        <v>-0.0011082511082510932</v>
+        <v>-0.0022165022165021864</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.0076467624086671987</v>
+        <v>0.015293524817334397</v>
       </c>
       <c r="B28" s="0">
-        <v>0.030499393402619174</v>
+        <v>0.060998786805238348</v>
       </c>
       <c r="C28" s="0">
-        <v>0.034739104183548628</v>
+        <v>0.069478208367097255</v>
       </c>
       <c r="D28" s="0">
-        <v>-0.0069113756613756738</v>
+        <v>-0.013822751322751348</v>
       </c>
       <c r="E28" s="0">
-        <v>-0.025322458732596975</v>
+        <v>-0.05064491746519395</v>
       </c>
       <c r="F28" s="0">
-        <v>-0.0070028011204481683</v>
+        <v>-0.014005602240896337</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>-0.0087719298245613891</v>
+        <v>-0.017543859649122778</v>
       </c>
       <c r="B29" s="0">
-        <v>0.0072719239385906215</v>
+        <v>0.014543847877181243</v>
       </c>
       <c r="C29" s="0">
-        <v>-0.0012909735131957228</v>
+        <v>-0.0025819470263914457</v>
       </c>
       <c r="D29" s="0">
-        <v>-0.0017609382934460349</v>
+        <v>-0.0035218765868920698</v>
       </c>
       <c r="E29" s="0">
-        <v>0.022774815631958517</v>
+        <v>0.045549631263917034</v>
       </c>
       <c r="F29" s="0">
-        <v>-0.01923351923351925</v>
+        <v>-0.0384670384670385</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.0124758687258687</v>
+        <v>0.024951737451737399</v>
       </c>
       <c r="B30" s="0">
-        <v>-0.0043766981266981086</v>
+        <v>-0.0087533962533962173</v>
       </c>
       <c r="C30" s="0">
-        <v>-0.011594928261594917</v>
+        <v>-0.023189856523189833</v>
       </c>
       <c r="D30" s="0">
-        <v>0.012203274703274689</v>
+        <v>0.024406549406549377</v>
       </c>
       <c r="E30" s="0">
-        <v>0.013359788359788322</v>
+        <v>0.026719576719576643</v>
       </c>
       <c r="F30" s="0">
-        <v>-0.0063785590101379241</v>
+        <v>-0.012757118020275848</v>
       </c>
     </row>
   </sheetData>
